--- a/Wyniki 3/Gotowe!/Wykresy.xlsx
+++ b/Wyniki 3/Gotowe!/Wykresy.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Gotowe!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B7A70-A07E-4978-AE6A-D68CCADACDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12E6DD9-73E9-4B56-B0B5-F0794AACC8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 - 1 rekord" sheetId="1" r:id="rId1"/>
     <sheet name="S1 - 100 rekordów" sheetId="2" r:id="rId2"/>
     <sheet name="S1 - 500 rekordów " sheetId="3" r:id="rId3"/>
-    <sheet name="S4" sheetId="4" r:id="rId4"/>
-    <sheet name="S3" sheetId="5" r:id="rId5"/>
-    <sheet name="S2" sheetId="6" r:id="rId6"/>
+    <sheet name="S1 - wykresy" sheetId="7" r:id="rId4"/>
+    <sheet name="S4" sheetId="4" r:id="rId5"/>
+    <sheet name="Wykres" sheetId="8" r:id="rId6"/>
+    <sheet name="S3" sheetId="5" r:id="rId7"/>
+    <sheet name="S2" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,20 +32,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="170">
   <si>
     <t>REST</t>
   </si>
   <si>
-    <t>Graphql (resolved fields + DataLoader)</t>
-  </si>
-  <si>
     <t>GraphQL (jedno zapytanie do bazy)</t>
   </si>
   <si>
-    <t>Graphql (resolved fields + DataLoader) - samo ID</t>
-  </si>
-  <si>
     <t>GraphQL  (jedno zapytanie do bazy) - samo ID</t>
   </si>
   <si>
@@ -360,6 +356,192 @@
   </si>
   <si>
     <t>840MB</t>
+  </si>
+  <si>
+    <t>48MB</t>
+  </si>
+  <si>
+    <t>7,7MB</t>
+  </si>
+  <si>
+    <t>477MB</t>
+  </si>
+  <si>
+    <t>77MB</t>
+  </si>
+  <si>
+    <t>954MB</t>
+  </si>
+  <si>
+    <t>155MB</t>
+  </si>
+  <si>
+    <t>1945,6MB</t>
+  </si>
+  <si>
+    <t>55MB</t>
+  </si>
+  <si>
+    <t>550MB</t>
+  </si>
+  <si>
+    <t>482MB</t>
+  </si>
+  <si>
+    <t>961MB</t>
+  </si>
+  <si>
+    <t>25MB</t>
+  </si>
+  <si>
+    <t>23MB</t>
+  </si>
+  <si>
+    <t>250MB</t>
+  </si>
+  <si>
+    <t>233MB</t>
+  </si>
+  <si>
+    <t>500MB</t>
+  </si>
+  <si>
+    <t>465MB</t>
+  </si>
+  <si>
+    <t>713MB</t>
+  </si>
+  <si>
+    <t>662MB</t>
+  </si>
+  <si>
+    <t>GraphQL - samo ID</t>
+  </si>
+  <si>
+    <t>2,8GB</t>
+  </si>
+  <si>
+    <t>8,6MB</t>
+  </si>
+  <si>
+    <t>28GB</t>
+  </si>
+  <si>
+    <t>87MB</t>
+  </si>
+  <si>
+    <t>37GB</t>
+  </si>
+  <si>
+    <t>113MB</t>
+  </si>
+  <si>
+    <t>46GB</t>
+  </si>
+  <si>
+    <t>142MB</t>
+  </si>
+  <si>
+    <t>51MB</t>
+  </si>
+  <si>
+    <t>14GB</t>
+  </si>
+  <si>
+    <t>221MB</t>
+  </si>
+  <si>
+    <t>123MB</t>
+  </si>
+  <si>
+    <t>226MB</t>
+  </si>
+  <si>
+    <t>183MB</t>
+  </si>
+  <si>
+    <t>26MB</t>
+  </si>
+  <si>
+    <t>1,8GB</t>
+  </si>
+  <si>
+    <t>263MB</t>
+  </si>
+  <si>
+    <t>3,3GB</t>
+  </si>
+  <si>
+    <t>468MB</t>
+  </si>
+  <si>
+    <t>3,6GB</t>
+  </si>
+  <si>
+    <t>513MB</t>
+  </si>
+  <si>
+    <t>52GB</t>
+  </si>
+  <si>
+    <t>32MB</t>
+  </si>
+  <si>
+    <t>58,5GB</t>
+  </si>
+  <si>
+    <t>36MB</t>
+  </si>
+  <si>
+    <t>15GB</t>
+  </si>
+  <si>
+    <t>17GB</t>
+  </si>
+  <si>
+    <t>54MB</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>53MB</t>
+  </si>
+  <si>
+    <t>56MB</t>
+  </si>
+  <si>
+    <t>821MB</t>
+  </si>
+  <si>
+    <t>6,8GB</t>
+  </si>
+  <si>
+    <t>218MB</t>
+  </si>
+  <si>
+    <t>7,4GB</t>
+  </si>
+  <si>
+    <t>235MB</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
+  </si>
+  <si>
+    <t>Wy</t>
+  </si>
+  <si>
+    <t>Pobieranie z różnej liczby tabel dla 4000 użytkowników</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
 </sst>
 </file>
@@ -473,9 +655,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +662,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +764,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 1 rekord'!$E$5:$E$7</c:f>
+              <c:f>'S1 - 1 rekord'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -593,6 +775,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -600,10 +785,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 1 rekord'!$F$5:$F$7</c:f>
+              <c:f>'S1 - 1 rekord'!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.07</c:v>
                 </c:pt>
@@ -611,6 +796,9 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.09</c:v>
                 </c:pt>
               </c:numCache>
@@ -619,7 +807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3BF-4E48-95FE-14196BBAD726}"/>
+              <c16:uniqueId val="{00000000-0F49-42FB-9EDF-C453A2B0EA13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -632,7 +820,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graphql (resolved fields + DataLoader)</c:v>
+                  <c:v>Graphql</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -651,10 +839,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 1 rekord'!$E$5:$E$7</c:f>
+              <c:f>'S1 - 1 rekord'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -662,6 +850,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -669,10 +860,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 1 rekord'!$G$5:$G$7</c:f>
+              <c:f>'S1 - 1 rekord'!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.83</c:v>
                 </c:pt>
@@ -680,6 +871,9 @@
                   <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>673.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -688,7 +882,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F3BF-4E48-95FE-14196BBAD726}"/>
+              <c16:uniqueId val="{00000001-0F49-42FB-9EDF-C453A2B0EA13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -701,7 +895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graphql (resolved fields + DataLoader) - samo ID</c:v>
+                  <c:v>GraphQL - samo ID</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -720,10 +914,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 1 rekord'!$E$5:$E$7</c:f>
+              <c:f>'S1 - 1 rekord'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -731,6 +925,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -738,10 +935,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 1 rekord'!$H$5:$H$7</c:f>
+              <c:f>'S1 - 1 rekord'!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.71</c:v>
                 </c:pt>
@@ -749,6 +946,9 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>406.31</c:v>
                 </c:pt>
               </c:numCache>
@@ -757,214 +957,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F3BF-4E48-95FE-14196BBAD726}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 1 rekord'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL (jedno zapytanie do bazy)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 1 rekord'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 1 rekord'!$I$5:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>389.09</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F3BF-4E48-95FE-14196BBAD726}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 1 rekord'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL  (jedno zapytanie do bazy) - samo ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 1 rekord'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 1 rekord'!$J$5:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>275.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F3BF-4E48-95FE-14196BBAD726}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 1 rekord'!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL (jedno zoptymalizowane zapytanie do bazy) - samo ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 1 rekord'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 1 rekord'!$K$5:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>417.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F3BF-4E48-95FE-14196BBAD726}"/>
+              <c16:uniqueId val="{00000002-0F49-42FB-9EDF-C453A2B0EA13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -977,11 +970,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1940715136"/>
-        <c:axId val="1940700256"/>
+        <c:axId val="626516767"/>
+        <c:axId val="626514847"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1940715136"/>
+        <c:axId val="626516767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1017,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940700256"/>
+        <c:crossAx val="626514847"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1940700256"/>
+        <c:axId val="626514847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1076,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940715136"/>
+        <c:crossAx val="626516767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,10 +1234,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$E$5:$E$7</c:f>
+              <c:f>'S1 - 100 rekordów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1252,6 +1245,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1259,10 +1255,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$F$5:$F$7</c:f>
+              <c:f>'S1 - 100 rekordów'!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.29</c:v>
                 </c:pt>
@@ -1270,6 +1266,9 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>534.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1435</c:v>
                 </c:pt>
               </c:numCache>
@@ -1278,7 +1277,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76E4-4C08-A3B3-036330F04E8A}"/>
+              <c16:uniqueId val="{00000000-91F3-4CE3-B079-50A4452EEEB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,7 +1290,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graphql (resolved fields + DataLoader)</c:v>
+                  <c:v>Graphql</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1310,10 +1309,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$E$5:$E$7</c:f>
+              <c:f>'S1 - 100 rekordów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1321,6 +1320,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1328,10 +1330,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$G$5:$G$7</c:f>
+              <c:f>'S1 - 100 rekordów'!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.49</c:v>
                 </c:pt>
@@ -1339,6 +1341,9 @@
                   <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3554</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8104</c:v>
                 </c:pt>
               </c:numCache>
@@ -1347,7 +1352,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-76E4-4C08-A3B3-036330F04E8A}"/>
+              <c16:uniqueId val="{00000001-91F3-4CE3-B079-50A4452EEEB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,7 +1365,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graphql (resolved fields + DataLoader) - samo ID</c:v>
+                  <c:v>Graphql - samo ID</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,10 +1384,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$E$5:$E$7</c:f>
+              <c:f>'S1 - 100 rekordów'!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1390,6 +1395,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,10 +1405,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$H$5:$H$7</c:f>
+              <c:f>'S1 - 100 rekordów'!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.73</c:v>
                 </c:pt>
@@ -1408,6 +1416,9 @@
                   <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>125.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1043.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -1416,214 +1427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-76E4-4C08-A3B3-036330F04E8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 100 rekordów'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL (jedno zapytanie do bazy)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$I$5:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1047.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6917.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-76E4-4C08-A3B3-036330F04E8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 100 rekordów'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL  (jedno zapytanie do bazy) - samo ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$J$5:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2223.33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-76E4-4C08-A3B3-036330F04E8A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 100 rekordów'!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL (jedno zoptymalizowane zapytanie do bazy) - samo ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 100 rekordów'!$K$5:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-76E4-4C08-A3B3-036330F04E8A}"/>
+              <c16:uniqueId val="{00000002-91F3-4CE3-B079-50A4452EEEB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1636,11 +1440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1940715136"/>
-        <c:axId val="1940700256"/>
+        <c:axId val="626421247"/>
+        <c:axId val="626427967"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1940715136"/>
+        <c:axId val="626421247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1487,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940700256"/>
+        <c:crossAx val="626427967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1691,7 +1495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1940700256"/>
+        <c:axId val="626427967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1546,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940715136"/>
+        <c:crossAx val="626421247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,6 +1591,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1900,10 +1711,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$E$5:$E$7</c:f>
+              <c:f>'S1 - 500 rekordów '!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1911,6 +1722,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1918,10 +1732,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$F$5:$F$7</c:f>
+              <c:f>'S1 - 500 rekordów '!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.05</c:v>
                 </c:pt>
@@ -1929,6 +1743,9 @@
                   <c:v>1670</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4352</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8605</c:v>
                 </c:pt>
               </c:numCache>
@@ -1937,7 +1754,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-555D-438C-B9DB-89B41E08EAF7}"/>
+              <c16:uniqueId val="{00000000-078C-40D2-817D-6DBE8CC6693F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1950,7 +1767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graphql (resolved fields + DataLoader)</c:v>
+                  <c:v>Graphql</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,10 +1786,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$E$5:$E$7</c:f>
+              <c:f>'S1 - 500 rekordów '!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1980,6 +1797,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1987,10 +1807,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$G$5:$G$7</c:f>
+              <c:f>'S1 - 500 rekordów '!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>70.42</c:v>
                 </c:pt>
@@ -1998,6 +1818,9 @@
                   <c:v>8691</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19250</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>37057</c:v>
                 </c:pt>
               </c:numCache>
@@ -2006,7 +1829,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-555D-438C-B9DB-89B41E08EAF7}"/>
+              <c16:uniqueId val="{00000001-078C-40D2-817D-6DBE8CC6693F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2019,7 +1842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Graphql (resolved fields + DataLoader) - samo ID</c:v>
+                  <c:v>Graphql - samo ID</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2038,10 +1861,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$E$5:$E$7</c:f>
+              <c:f>'S1 - 500 rekordów '!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2049,6 +1872,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2056,10 +1882,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$H$5:$H$7</c:f>
+              <c:f>'S1 - 500 rekordów '!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.1800000000000002</c:v>
                 </c:pt>
@@ -2067,6 +1893,9 @@
                   <c:v>203.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1412.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3456</c:v>
                 </c:pt>
               </c:numCache>
@@ -2075,214 +1904,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-555D-438C-B9DB-89B41E08EAF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 500 rekordów '!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL (jedno zapytanie do bazy)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$I$5:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>26.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35745</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-555D-438C-B9DB-89B41E08EAF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 500 rekordów '!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL  (jedno zapytanie do bazy) - samo ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$J$5:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10866.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-555D-438C-B9DB-89B41E08EAF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S1 - 500 rekordów '!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GraphQL (jedno zoptymalizowane zapytanie do bazy) - samo ID</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$E$5:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S1 - 500 rekordów '!$K$5:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>532.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-555D-438C-B9DB-89B41E08EAF7}"/>
+              <c16:uniqueId val="{00000002-078C-40D2-817D-6DBE8CC6693F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2295,11 +1917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1940715136"/>
-        <c:axId val="1940700256"/>
+        <c:axId val="626450047"/>
+        <c:axId val="626457727"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1940715136"/>
+        <c:axId val="626450047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +1964,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940700256"/>
+        <c:crossAx val="626457727"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +1972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1940700256"/>
+        <c:axId val="626457727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2023,543 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940715136"/>
+        <c:crossAx val="626450047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S1 - wykresy'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'S1 - wykresy'!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 - wykresy'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D62-4977-BB08-9FBF9F835028}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S1 - wykresy'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'S1 - wykresy'!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 - wykresy'!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>673.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D62-4977-BB08-9FBF9F835028}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S1 - wykresy'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL - samo ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'S1 - wykresy'!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S1 - wykresy'!$H$6:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>406.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1043.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D62-4977-BB08-9FBF9F835028}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="626483647"/>
+        <c:axId val="626489887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="626483647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba pobieranych rekordów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626489887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626489887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Średni</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> czas opdoiwiedzi (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626483647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,7 +2639,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -2495,37 +2653,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2850,6 +2978,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2915,6 +3098,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Średni czas odpowiedzi (ms)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3026,7 +3270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -3071,6 +3315,482 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wykres!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wykres!$K$10:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykres!$L$10:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BA0-44EE-AF19-6CA758054EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wykres!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST - jeden endpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wykres!$K$10:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykres!$M$10:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>582.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BA0-44EE-AF19-6CA758054EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wykres!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graphql</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wykres!$K$10:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykres!$N$10:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1366.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1606.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BA0-44EE-AF19-6CA758054EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wykres!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL - samo ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wykres!$K$10:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykres!$O$10:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5BA0-44EE-AF19-6CA758054EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="832098303"/>
+        <c:axId val="832115103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832098303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832115103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="832115103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832098303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3571,7 +4291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -3585,37 +4305,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3940,6 +4630,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4005,6 +4750,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Średni</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> czas odpowiedzi (ms)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4356,6 +5166,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5905,7 +6795,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6013,11 +6903,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6028,11 +6913,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6064,9 +6944,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6122,22 +6999,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6242,8 +7120,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6375,19 +7253,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6937,7 +7816,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7045,11 +7924,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7060,11 +7934,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7096,6 +7965,1037 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -7456,23 +9356,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>517524</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>463550</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA38B990-F838-4B08-EAAC-5BD81416281C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E013A685-849C-6E2F-54CA-388FBDFF9530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7497,29 +9397,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>327024</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>155574</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>491987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A079992-7B23-4DDB-AC9B-C80D6C11D11B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4512210-43D0-448D-E9F7-F415DE954A37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7540,29 +9438,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>327024</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>155574</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>728662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3A5B88-8986-4933-BFAC-98B7C018732F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A037E0-5EF4-8E4A-62D2-15E4CB0C559F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7580,6 +9476,47 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD9DECF-9718-4D44-1FBD-9C57F7FC6E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7620,7 +9557,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23CD392-EBF2-7B33-BF32-42330F43594B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7661,7 +9639,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7965,39 +9943,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:K7"/>
+  <dimension ref="E4:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="11" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="5:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <v>100</v>
       </c>
@@ -8014,13 +9992,10 @@
         <v>1.48</v>
       </c>
       <c r="J5" s="2">
-        <v>1.47</v>
-      </c>
-      <c r="K5" s="2">
         <v>1.72</v>
       </c>
     </row>
-    <row r="6" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>1000</v>
       </c>
@@ -8037,36 +10012,377 @@
         <v>2.34</v>
       </c>
       <c r="J6" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="K6" s="2">
         <v>2.78</v>
       </c>
     </row>
-    <row r="7" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="5:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
         <v>4000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>3.09</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>673.86</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>406.31</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>389.09</v>
       </c>
-      <c r="J7" s="2">
-        <v>275.81</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J8" s="2">
         <v>417.72</v>
       </c>
     </row>
+    <row r="22" spans="7:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="8">
+        <v>100</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+      <c r="H24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6">
+        <v>147.76</v>
+      </c>
+      <c r="J24" s="6">
+        <v>168.78</v>
+      </c>
+      <c r="K24" s="6">
+        <v>156.66</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6">
+        <v>87.46</v>
+      </c>
+      <c r="J25" s="6">
+        <v>87.39</v>
+      </c>
+      <c r="K25" s="6">
+        <v>87.42</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+      <c r="H26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1.47</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+      <c r="H29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>153.25</v>
+      </c>
+      <c r="J29" s="7">
+        <v>159.69</v>
+      </c>
+      <c r="K29" s="7">
+        <v>151.96</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+      <c r="H30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>873.85</v>
+      </c>
+      <c r="J30" s="7">
+        <v>873.29</v>
+      </c>
+      <c r="K30" s="7">
+        <v>873.83</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+      <c r="H31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+      <c r="H32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+      <c r="H34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="6">
+        <v>171.6</v>
+      </c>
+      <c r="J34" s="6">
+        <v>258.55</v>
+      </c>
+      <c r="K34" s="6">
+        <v>176.04</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1747.75</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1743.54</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1746.54</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="8"/>
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="8"/>
+      <c r="H37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3.09</v>
+      </c>
+      <c r="J38" s="7">
+        <v>673.86</v>
+      </c>
+      <c r="K38" s="7">
+        <v>406.31</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="8"/>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="7">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1250</v>
+      </c>
+      <c r="K39" s="7">
+        <v>670.86</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+      <c r="H40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3487.92</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2090.67</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2488.25</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+      <c r="H41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="8"/>
+      <c r="H42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G28:G32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8074,36 +10390,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECB2EDF-8AFF-4D74-9538-5211CBDDD669}">
-  <dimension ref="E4:K7"/>
+  <dimension ref="E4:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="11" width="22.140625" customWidth="1"/>
+    <col min="6" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:11" ht="120" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8154,28 +10473,376 @@
     </row>
     <row r="7" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>534.27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3554</v>
+      </c>
+      <c r="H7" s="2">
+        <v>125.25</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
         <v>4000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>1435</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>8104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>1043.33</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>6917.5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>2223.33</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>1046</v>
       </c>
     </row>
+    <row r="17" spans="8:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="8">
+        <v>100</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="8"/>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>46.43</v>
+      </c>
+      <c r="K19" s="6">
+        <v>183.36</v>
+      </c>
+      <c r="L19" s="6">
+        <v>156.35</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="8"/>
+      <c r="I20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="6">
+        <v>87.41</v>
+      </c>
+      <c r="K20" s="6">
+        <v>87.21</v>
+      </c>
+      <c r="L20" s="6">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="8"/>
+      <c r="I21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="8"/>
+      <c r="I22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1344</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="8"/>
+      <c r="I24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="7">
+        <v>149.54</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2380</v>
+      </c>
+      <c r="L24" s="7">
+        <v>156.07</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="8"/>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="7">
+        <v>873.91</v>
+      </c>
+      <c r="K25" s="7">
+        <v>372.26</v>
+      </c>
+      <c r="L25" s="7">
+        <v>873.16</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="8"/>
+      <c r="I26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="8"/>
+      <c r="I27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="6">
+        <v>534.27</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3554</v>
+      </c>
+      <c r="L28" s="6">
+        <v>125.25</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="8"/>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1070</v>
+      </c>
+      <c r="K29" s="6">
+        <v>5610</v>
+      </c>
+      <c r="L29" s="6">
+        <v>391.78</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="8"/>
+      <c r="I30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1140.48</v>
+      </c>
+      <c r="K30" s="6">
+        <v>384.29</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1554.87</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="8"/>
+      <c r="I31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="8"/>
+      <c r="I32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1435</v>
+      </c>
+      <c r="K33" s="7">
+        <v>8104</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1043.33</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="8"/>
+      <c r="I34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1805</v>
+      </c>
+      <c r="K34" s="7">
+        <v>10710</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="8"/>
+      <c r="I35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1435.49</v>
+      </c>
+      <c r="K35" s="7">
+        <v>385.1</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1708.26</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="8"/>
+      <c r="I36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="8"/>
+      <c r="I37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8183,39 +10850,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B744079C-C9A8-4FF7-85EA-83E15B4C7DF7}">
-  <dimension ref="E4:K7"/>
+  <dimension ref="E4:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="11" width="22.140625" customWidth="1"/>
+    <col min="6" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:13" ht="135" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="5:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <v>100</v>
       </c>
@@ -8238,7 +10908,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="6" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>1000</v>
       </c>
@@ -8261,27 +10931,480 @@
         <v>532.11</v>
       </c>
     </row>
-    <row r="7" spans="5:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4352</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19250</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1412.86</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="5:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
         <v>4000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>8605</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>37057</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>3456</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>35745</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>10866.67</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>4796</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" s="8">
+        <v>100</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="6">
+        <v>3.05</v>
+      </c>
+      <c r="L17" s="6">
+        <v>70.42</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I18" s="8"/>
+      <c r="J18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="6">
+        <v>170.44</v>
+      </c>
+      <c r="L18" s="6">
+        <v>671.07</v>
+      </c>
+      <c r="M18" s="6">
+        <v>175.88</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I19" s="8"/>
+      <c r="J19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="6">
+        <v>87.29</v>
+      </c>
+      <c r="L19" s="6">
+        <v>81.61</v>
+      </c>
+      <c r="M19" s="6">
+        <v>87.33</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="8"/>
+      <c r="J20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+      <c r="J21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1670</v>
+      </c>
+      <c r="L22" s="7">
+        <v>8691</v>
+      </c>
+      <c r="M22" s="7">
+        <v>203.92</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="8"/>
+      <c r="J23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2230</v>
+      </c>
+      <c r="L23" s="7">
+        <v>11600</v>
+      </c>
+      <c r="M23" s="7">
+        <v>617.80999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="7">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="L24" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="M24" s="7">
+        <v>726.53</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="8"/>
+      <c r="J25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I26" s="8"/>
+      <c r="J26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="6">
+        <v>4352</v>
+      </c>
+      <c r="L27" s="6">
+        <v>19250</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1412.86</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="8"/>
+      <c r="J28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="6">
+        <v>6870</v>
+      </c>
+      <c r="L28" s="6">
+        <v>26130</v>
+      </c>
+      <c r="M28" s="6">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="8"/>
+      <c r="J29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="6">
+        <v>327.02</v>
+      </c>
+      <c r="L29" s="6">
+        <v>86.99</v>
+      </c>
+      <c r="M29" s="6">
+        <v>726.53</v>
+      </c>
+    </row>
+    <row r="30" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="8"/>
+      <c r="J30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="8"/>
+      <c r="J31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="7">
+        <v>8605</v>
+      </c>
+      <c r="L32" s="7">
+        <v>37057</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="8"/>
+      <c r="J33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="7">
+        <v>10950</v>
+      </c>
+      <c r="L33" s="7">
+        <v>47450</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="8"/>
+      <c r="J34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="7">
+        <v>365.18</v>
+      </c>
+      <c r="L34" s="7">
+        <v>93.02</v>
+      </c>
+      <c r="M34" s="7">
+        <v>785.1</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I35" s="8"/>
+      <c r="J35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
+      <c r="J36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B86235-0983-4433-B2E5-55A8D7E451DF}">
+  <dimension ref="E5:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3.09</v>
+      </c>
+      <c r="G6">
+        <v>673.86</v>
+      </c>
+      <c r="H6">
+        <v>406.31</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>1435</v>
+      </c>
+      <c r="G7">
+        <v>8104</v>
+      </c>
+      <c r="H7">
+        <v>1043.33</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>8605</v>
+      </c>
+      <c r="G8">
+        <v>37057</v>
+      </c>
+      <c r="H8">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8290,12 +11413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B523D49-A97F-45EA-AEB1-01E530185D63}">
   <dimension ref="E4:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:L34"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8312,22 +11435,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8436,390 +11559,390 @@
     </row>
     <row r="14" spans="5:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="8">
+        <v>100</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2.66</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3.34</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+      <c r="H16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="6">
+        <v>164.21</v>
+      </c>
+      <c r="J16" s="6">
+        <v>152.85</v>
+      </c>
+      <c r="K16" s="6">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="L16" s="6">
+        <v>150.19</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6">
+        <v>694.09</v>
+      </c>
+      <c r="J17" s="6">
+        <v>87.28</v>
+      </c>
+      <c r="K17" s="6">
+        <v>87.23</v>
+      </c>
+      <c r="L17" s="6">
+        <v>87.25</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+      <c r="H19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="5">
+      <c r="J19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="L19" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1066</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1.94</v>
+      </c>
+      <c r="K20" s="7">
+        <v>10.98</v>
+      </c>
+      <c r="L20" s="7">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="8"/>
+      <c r="H21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1710</v>
+      </c>
+      <c r="J21" s="7">
+        <v>150.4</v>
+      </c>
+      <c r="K21" s="7">
+        <v>299.70999999999998</v>
+      </c>
+      <c r="L21" s="7">
+        <v>149.63</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="8"/>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3416.4</v>
+      </c>
+      <c r="J22" s="7">
+        <v>873.08</v>
+      </c>
+      <c r="K22" s="7">
+        <v>865.1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>874.68</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+      <c r="H23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="7">
-        <v>8.99</v>
-      </c>
-      <c r="J15" s="7">
-        <v>2.66</v>
-      </c>
-      <c r="K15" s="7">
-        <v>3.34</v>
-      </c>
-      <c r="L15" s="7">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
+      <c r="I23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+      <c r="H24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="6">
+        <v>3480</v>
+      </c>
+      <c r="J25" s="6">
+        <v>420.43</v>
+      </c>
+      <c r="K25" s="6">
+        <v>912.65</v>
+      </c>
+      <c r="L25" s="6">
+        <v>723.66</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+      <c r="H26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5210</v>
+      </c>
+      <c r="J26" s="6">
+        <v>680.04</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1490</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+      <c r="H27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="7">
-        <v>164.21</v>
-      </c>
-      <c r="J16" s="7">
-        <v>152.85</v>
-      </c>
-      <c r="K16" s="7">
-        <v>148.94999999999999</v>
-      </c>
-      <c r="L16" s="7">
-        <v>150.19</v>
-      </c>
-    </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="5"/>
-      <c r="H17" s="6" t="s">
+      <c r="I27" s="6">
+        <v>3124.1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1231.78</v>
+      </c>
+      <c r="K27" s="6">
+        <v>914.97</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1015.14</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+      <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+      <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="7">
-        <v>694.09</v>
-      </c>
-      <c r="J17" s="7">
-        <v>87.28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>87.23</v>
-      </c>
-      <c r="L17" s="7">
-        <v>87.25</v>
-      </c>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="5"/>
-      <c r="H18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7086</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1544</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2686.66</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8580</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1990</v>
+      </c>
+      <c r="K31" s="7">
+        <v>3470</v>
+      </c>
+      <c r="L31" s="7">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3467.64</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1372.8</v>
+      </c>
+      <c r="K32" s="7">
+        <v>949.19</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1088.75</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+      <c r="H33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1066</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1.94</v>
-      </c>
-      <c r="K20" s="8">
-        <v>10.98</v>
-      </c>
-      <c r="L20" s="8">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-      <c r="H21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1710</v>
-      </c>
-      <c r="J21" s="8">
-        <v>150.4</v>
-      </c>
-      <c r="K21" s="8">
-        <v>299.70999999999998</v>
-      </c>
-      <c r="L21" s="8">
-        <v>149.63</v>
-      </c>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="5"/>
-      <c r="H22" s="6" t="s">
+      <c r="K33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+      <c r="H34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="8">
-        <v>3416.4</v>
-      </c>
-      <c r="J22" s="8">
-        <v>873.08</v>
-      </c>
-      <c r="K22" s="8">
-        <v>865.1</v>
-      </c>
-      <c r="L22" s="8">
-        <v>874.68</v>
-      </c>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="5"/>
-      <c r="H23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="5"/>
-      <c r="H24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="I34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3480</v>
-      </c>
-      <c r="J25" s="7">
-        <v>420.43</v>
-      </c>
-      <c r="K25" s="7">
-        <v>912.65</v>
-      </c>
-      <c r="L25" s="7">
-        <v>723.66</v>
-      </c>
-    </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="5"/>
-      <c r="H26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5210</v>
-      </c>
-      <c r="J26" s="7">
-        <v>680.04</v>
-      </c>
-      <c r="K26" s="7">
-        <v>1490</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="5"/>
-      <c r="H27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3124.1</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1231.78</v>
-      </c>
-      <c r="K27" s="7">
-        <v>914.97</v>
-      </c>
-      <c r="L27" s="7">
-        <v>1015.14</v>
-      </c>
-    </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="5"/>
-      <c r="H28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="5"/>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="5">
-        <v>4000</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="8">
-        <v>7086</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1544</v>
-      </c>
-      <c r="K30" s="8">
-        <v>2686.66</v>
-      </c>
-      <c r="L30" s="8">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="5"/>
-      <c r="H31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="8">
-        <v>8580</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1990</v>
-      </c>
-      <c r="K31" s="8">
-        <v>3470</v>
-      </c>
-      <c r="L31" s="8">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="5"/>
-      <c r="H32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="8">
-        <v>3467.64</v>
-      </c>
-      <c r="J32" s="8">
-        <v>1372.8</v>
-      </c>
-      <c r="K32" s="8">
-        <v>949.19</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1088.75</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="5"/>
-      <c r="H33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="5"/>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8834,12 +11957,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0DDA67-FA46-4E86-80EC-1EC31607C189}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10">
+        <v>1188</v>
+      </c>
+      <c r="M10">
+        <v>582.35</v>
+      </c>
+      <c r="N10">
+        <v>1366.67</v>
+      </c>
+      <c r="O10">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11">
+        <v>4222</v>
+      </c>
+      <c r="M11">
+        <v>1208</v>
+      </c>
+      <c r="N11">
+        <v>1606.67</v>
+      </c>
+      <c r="O11">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12">
+        <v>7086</v>
+      </c>
+      <c r="M12">
+        <v>1544</v>
+      </c>
+      <c r="N12">
+        <v>2686</v>
+      </c>
+      <c r="O12">
+        <v>2210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E27ABAC-3591-4333-B8D0-6ECD884A25F3}">
   <dimension ref="E4:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:L4"/>
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8850,28 +12070,28 @@
     <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8980,390 +12200,390 @@
     </row>
     <row r="18" spans="6:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="8">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
+        <v>6.82</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3.43</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
+        <v>152.68</v>
+      </c>
+      <c r="I20" s="6">
+        <v>45.7</v>
+      </c>
+      <c r="J20" s="6">
+        <v>146.03</v>
+      </c>
+      <c r="K20" s="6">
+        <v>148.28</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="8"/>
+      <c r="G21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6">
+        <v>434.80200000000002</v>
+      </c>
+      <c r="I21" s="6">
+        <v>87.23</v>
+      </c>
+      <c r="J21" s="6">
+        <v>87.29</v>
+      </c>
+      <c r="K21" s="6">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="8"/>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="I22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+      <c r="G23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="5">
-        <v>100</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="I23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7">
+        <v>336.62</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7">
+        <v>673.08</v>
+      </c>
+      <c r="I25" s="7">
+        <v>156</v>
+      </c>
+      <c r="J25" s="7">
+        <v>140.75</v>
+      </c>
+      <c r="K25" s="7">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+      <c r="G26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3272.35</v>
+      </c>
+      <c r="I26" s="7">
+        <v>873.21</v>
+      </c>
+      <c r="J26" s="7">
+        <v>873.03</v>
+      </c>
+      <c r="K26" s="7">
+        <v>873.44</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="8"/>
+      <c r="G27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="7">
-        <v>6.82</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3.43</v>
-      </c>
-      <c r="J19" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
-      <c r="G20" s="6" t="s">
+      <c r="H27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="8"/>
+      <c r="G28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1860</v>
+      </c>
+      <c r="I29" s="6">
+        <v>257.47000000000003</v>
+      </c>
+      <c r="J29" s="6">
+        <v>443.44</v>
+      </c>
+      <c r="K29" s="6">
+        <v>266.11</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="8"/>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2610</v>
+      </c>
+      <c r="I30" s="6">
+        <v>609.32000000000005</v>
+      </c>
+      <c r="J30" s="6">
+        <v>778.11</v>
+      </c>
+      <c r="K30" s="6">
+        <v>769.48</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="8"/>
+      <c r="G31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="7">
-        <v>152.68</v>
-      </c>
-      <c r="I20" s="7">
-        <v>45.7</v>
-      </c>
-      <c r="J20" s="7">
-        <v>146.03</v>
-      </c>
-      <c r="K20" s="7">
-        <v>148.28</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="5"/>
-      <c r="G21" s="6" t="s">
+      <c r="H31" s="6">
+        <v>3055.31</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1391.29</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1212.19</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1381.59</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+      <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="7">
-        <v>434.80200000000002</v>
-      </c>
-      <c r="I21" s="7">
-        <v>87.23</v>
-      </c>
-      <c r="J21" s="7">
-        <v>87.29</v>
-      </c>
-      <c r="K21" s="7">
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="5"/>
-      <c r="G22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="H33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4222</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1208</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1606.67</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5670</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1580</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2280</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="8"/>
+      <c r="G36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="7">
+        <v>3350.83</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1581.02</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1339.19</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1554.51</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="8"/>
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+      <c r="G38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="5"/>
-      <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="8">
-        <v>336.62</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1.65</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1.93</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="5"/>
-      <c r="G25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="8">
-        <v>673.08</v>
-      </c>
-      <c r="I25" s="8">
-        <v>156</v>
-      </c>
-      <c r="J25" s="8">
-        <v>140.75</v>
-      </c>
-      <c r="K25" s="8">
-        <v>150.5</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8">
-        <v>3272.35</v>
-      </c>
-      <c r="I26" s="8">
-        <v>873.21</v>
-      </c>
-      <c r="J26" s="8">
-        <v>873.03</v>
-      </c>
-      <c r="K26" s="8">
-        <v>873.44</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="5"/>
-      <c r="G27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="5"/>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1860</v>
-      </c>
-      <c r="I29" s="7">
-        <v>257.47000000000003</v>
-      </c>
-      <c r="J29" s="7">
-        <v>443.44</v>
-      </c>
-      <c r="K29" s="7">
-        <v>266.11</v>
-      </c>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="5"/>
-      <c r="G30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2610</v>
-      </c>
-      <c r="I30" s="7">
-        <v>609.32000000000005</v>
-      </c>
-      <c r="J30" s="7">
-        <v>778.11</v>
-      </c>
-      <c r="K30" s="7">
-        <v>769.48</v>
-      </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="5"/>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3055.31</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1391.29</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1212.19</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1381.59</v>
-      </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="5"/>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="5"/>
-      <c r="G33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F34" s="5">
-        <v>4000</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="8">
-        <v>4222</v>
-      </c>
-      <c r="I34" s="8">
-        <v>1208</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1606.67</v>
-      </c>
-      <c r="K34" s="8">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
-      <c r="G35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="8">
-        <v>5670</v>
-      </c>
-      <c r="I35" s="8">
-        <v>1580</v>
-      </c>
-      <c r="J35" s="8">
-        <v>2280</v>
-      </c>
-      <c r="K35" s="8">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F36" s="5"/>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="8">
-        <v>3350.83</v>
-      </c>
-      <c r="I36" s="8">
-        <v>1581.02</v>
-      </c>
-      <c r="J36" s="8">
-        <v>1339.19</v>
-      </c>
-      <c r="K36" s="8">
-        <v>1554.51</v>
-      </c>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="5"/>
-      <c r="G37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F38" s="5"/>
-      <c r="G38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -9378,12 +12598,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE312635-8D79-47D7-9102-90C88FD36F90}">
   <dimension ref="D4:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:L4"/>
+    <sheetView topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9400,22 +12620,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9524,579 +12744,579 @@
     </row>
     <row r="16" spans="4:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>100</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2.37</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>155.33000000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>151.62</v>
+      </c>
+      <c r="H18" s="6">
+        <v>146.81</v>
+      </c>
+      <c r="I18" s="6">
+        <v>148.77000000000001</v>
+      </c>
+      <c r="J18" s="6">
+        <v>152.97</v>
+      </c>
+      <c r="K18" s="6">
+        <v>149.88</v>
+      </c>
+      <c r="L18" s="6">
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <v>174.61</v>
+      </c>
+      <c r="G19" s="6">
+        <v>87.39</v>
+      </c>
+      <c r="H19" s="6">
+        <v>87.29</v>
+      </c>
+      <c r="I19" s="6">
+        <v>87.31</v>
+      </c>
+      <c r="J19" s="6">
+        <v>87.33</v>
+      </c>
+      <c r="K19" s="6">
+        <v>87.34</v>
+      </c>
+      <c r="L19" s="6">
+        <v>87.36</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+      <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7">
-        <v>2.68</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1.89</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1.53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2.37</v>
-      </c>
-      <c r="J17" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="K17" s="7">
-        <v>2.19</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.91</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1.51</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7">
+        <v>160.82</v>
+      </c>
+      <c r="G23" s="7">
+        <v>163.4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>144.36000000000001</v>
+      </c>
+      <c r="I23" s="7">
+        <v>142.96</v>
+      </c>
+      <c r="J23" s="7">
+        <v>150.63</v>
+      </c>
+      <c r="K23" s="7">
+        <v>155.29</v>
+      </c>
+      <c r="L23" s="7">
+        <v>164.62</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+      <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7">
-        <v>155.33000000000001</v>
-      </c>
-      <c r="G18" s="7">
-        <v>151.62</v>
-      </c>
-      <c r="H18" s="7">
-        <v>146.81</v>
-      </c>
-      <c r="I18" s="7">
-        <v>148.77000000000001</v>
-      </c>
-      <c r="J18" s="7">
-        <v>152.97</v>
-      </c>
-      <c r="K18" s="7">
-        <v>149.88</v>
-      </c>
-      <c r="L18" s="7">
-        <v>159.34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
+      <c r="F24" s="7">
+        <v>1745.83</v>
+      </c>
+      <c r="G24" s="7">
+        <v>873.37</v>
+      </c>
+      <c r="H24" s="7">
+        <v>873.06</v>
+      </c>
+      <c r="I24" s="7">
+        <v>873.14</v>
+      </c>
+      <c r="J24" s="7">
+        <v>873.25</v>
+      </c>
+      <c r="K24" s="7">
+        <v>873.19</v>
+      </c>
+      <c r="L24" s="7">
+        <v>873.1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="7">
-        <v>174.61</v>
-      </c>
-      <c r="G19" s="7">
-        <v>87.39</v>
-      </c>
-      <c r="H19" s="7">
-        <v>87.29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>87.31</v>
-      </c>
-      <c r="J19" s="7">
-        <v>87.33</v>
-      </c>
-      <c r="K19" s="7">
-        <v>87.34</v>
-      </c>
-      <c r="L19" s="7">
-        <v>87.36</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="6" t="s">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6">
+        <v>254.1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>7.87</v>
+      </c>
+      <c r="H27" s="6">
+        <v>328.1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>240.52</v>
+      </c>
+      <c r="J27" s="6">
+        <v>359.06</v>
+      </c>
+      <c r="K27" s="6">
+        <v>332.9</v>
+      </c>
+      <c r="L27" s="6">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>555.9</v>
+      </c>
+      <c r="G28" s="6">
+        <v>222.29</v>
+      </c>
+      <c r="H28" s="6">
+        <v>964.56</v>
+      </c>
+      <c r="I28" s="6">
+        <v>637.83000000000004</v>
+      </c>
+      <c r="J28" s="6">
+        <v>682.34</v>
+      </c>
+      <c r="K28" s="6">
+        <v>626.95000000000005</v>
+      </c>
+      <c r="L28" s="6">
+        <v>187.94</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2830.84</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1735.55</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1317.3</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1410.04</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1287.3399999999999</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1312.53</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1738.2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="8"/>
+      <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="8">
-        <v>1.91</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.35</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1.51</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1.74</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1.88</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="8"/>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1188</v>
+      </c>
+      <c r="G32" s="7">
+        <v>582.35</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1336.67</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1163.33</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1042</v>
+      </c>
+      <c r="K32" s="7">
+        <v>985.48</v>
+      </c>
+      <c r="L32" s="7">
+        <v>806.97</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1740</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1050</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1910</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1760</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1430</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+      <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="8">
-        <v>160.82</v>
-      </c>
-      <c r="G23" s="8">
-        <v>163.4</v>
-      </c>
-      <c r="H23" s="8">
-        <v>144.36000000000001</v>
-      </c>
-      <c r="I23" s="8">
-        <v>142.96</v>
-      </c>
-      <c r="J23" s="8">
-        <v>150.63</v>
-      </c>
-      <c r="K23" s="8">
-        <v>155.29</v>
-      </c>
-      <c r="L23" s="8">
-        <v>164.62</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
+      <c r="F34" s="7">
+        <v>3191.72</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2214.0700000000002</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1493.66</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1614.5</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1708.95</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1762.45</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1936.59</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="8"/>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
+      <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="8">
-        <v>1745.83</v>
-      </c>
-      <c r="G24" s="8">
-        <v>873.37</v>
-      </c>
-      <c r="H24" s="8">
-        <v>873.06</v>
-      </c>
-      <c r="I24" s="8">
-        <v>873.14</v>
-      </c>
-      <c r="J24" s="8">
-        <v>873.25</v>
-      </c>
-      <c r="K24" s="8">
-        <v>873.19</v>
-      </c>
-      <c r="L24" s="8">
-        <v>873.1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="F36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="7">
-        <v>254.1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>7.87</v>
-      </c>
-      <c r="H27" s="7">
-        <v>328.1</v>
-      </c>
-      <c r="I27" s="7">
-        <v>240.52</v>
-      </c>
-      <c r="J27" s="7">
-        <v>359.06</v>
-      </c>
-      <c r="K27" s="7">
-        <v>332.9</v>
-      </c>
-      <c r="L27" s="7">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="7">
-        <v>555.9</v>
-      </c>
-      <c r="G28" s="7">
-        <v>222.29</v>
-      </c>
-      <c r="H28" s="7">
-        <v>964.56</v>
-      </c>
-      <c r="I28" s="7">
-        <v>637.83000000000004</v>
-      </c>
-      <c r="J28" s="7">
-        <v>682.34</v>
-      </c>
-      <c r="K28" s="7">
-        <v>626.95000000000005</v>
-      </c>
-      <c r="L28" s="7">
-        <v>187.94</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7">
-        <v>2830.84</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1735.55</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1317.3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1410.04</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1287.3399999999999</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1312.53</v>
-      </c>
-      <c r="L29" s="7">
-        <v>1738.2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="5">
-        <v>4000</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1188</v>
-      </c>
-      <c r="G32" s="8">
-        <v>582.35</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1336.67</v>
-      </c>
-      <c r="I32" s="8">
-        <v>1163.33</v>
-      </c>
-      <c r="J32" s="8">
-        <v>1042</v>
-      </c>
-      <c r="K32" s="8">
-        <v>985.48</v>
-      </c>
-      <c r="L32" s="8">
-        <v>806.97</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1740</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1050</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1910</v>
-      </c>
-      <c r="I33" s="8">
-        <v>1760</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1430</v>
-      </c>
-      <c r="K33" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L33" s="8">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="8">
-        <v>3191.72</v>
-      </c>
-      <c r="G34" s="8">
-        <v>2214.0700000000002</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1493.66</v>
-      </c>
-      <c r="I34" s="8">
-        <v>1614.5</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1708.95</v>
-      </c>
-      <c r="K34" s="8">
-        <v>1762.45</v>
-      </c>
-      <c r="L34" s="8">
-        <v>1936.59</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
